--- a/Tools/tank_group_info.xlsx
+++ b/Tools/tank_group_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,6 +69,10 @@
   </si>
   <si>
     <t>tank_group_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0,0,1]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -484,7 +488,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -561,7 +565,7 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -578,7 +582,7 @@
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
